--- a/Output/DescriptivesAll.xlsx
+++ b/Output/DescriptivesAll.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t xml:space="preserve">Variable</t>
   </si>
@@ -41,90 +41,111 @@
     <t xml:space="preserve">persuasion</t>
   </si>
   <si>
+    <t xml:space="preserve">3936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00-   5.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pushing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pa_sub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  30.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 54.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00- 720.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pa_obj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 144.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75- 971.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   3.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reactance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">day</t>
+  </si>
+  <si>
     <t xml:space="preserve">4180</t>
   </si>
   <si>
-    <t xml:space="preserve">6%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   0.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00-   5.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   0.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pushing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   0.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pa_sub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  30.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 54.78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00- 720.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pa_obj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11%</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 144.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75- 971.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   3.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reactance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   0.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">day</t>
-  </si>
-  <si>
     <t xml:space="preserve">0%</t>
   </si>
   <si>
@@ -140,6 +161,9 @@
     <t xml:space="preserve">weartime</t>
   </si>
   <si>
+    <t xml:space="preserve">4124</t>
+  </si>
+  <si>
     <t xml:space="preserve">1%</t>
   </si>
   <si>
@@ -231,6 +255,9 @@
   </si>
   <si>
     <t xml:space="preserve">support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3927</t>
   </si>
   <si>
     <t xml:space="preserve">   0.91</t>
@@ -664,17 +691,17 @@
       </c>
       <c r="B3"/>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
@@ -682,21 +709,21 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4"/>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
         <v>13</v>
@@ -704,65 +731,65 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B5"/>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B6"/>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B7"/>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H7" t="s">
         <v>13</v>
@@ -770,21 +797,21 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B8"/>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H8" t="s">
         <v>13</v>
@@ -792,241 +819,241 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B9"/>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B10"/>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E11"/>
       <c r="F11" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="H11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E12"/>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="H12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
       </c>
       <c r="E13"/>
       <c r="F13" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G13" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="H13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E14"/>
       <c r="F14" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G14" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E15"/>
       <c r="F15" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G15" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="H15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E16"/>
       <c r="F16" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G16" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="H16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E17"/>
       <c r="F17" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G17" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="H17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E18"/>
       <c r="F18" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G18" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="H18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B19"/>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="D19"/>
       <c r="E19" t="s">
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G19" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H19" t="s">
         <v>13</v>
@@ -1034,89 +1061,89 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D20" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E20"/>
       <c r="F20" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G20" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="H20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D21" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E21"/>
       <c r="F21" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G21" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="H21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C22" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D22" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E22"/>
       <c r="F22" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G22" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="H22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C23" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D23" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E23"/>
       <c r="F23" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G23" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="H23"/>
     </row>

--- a/Output/DescriptivesAll.xlsx
+++ b/Output/DescriptivesAll.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t xml:space="preserve">Variable</t>
   </si>
@@ -71,7 +71,10 @@
     <t xml:space="preserve">pushing</t>
   </si>
   <si>
-    <t xml:space="preserve">3939</t>
+    <t xml:space="preserve">3905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7%</t>
   </si>
   <si>
     <t xml:space="preserve">   0.16</t>
@@ -209,7 +212,7 @@
     <t xml:space="preserve">missing</t>
   </si>
   <si>
-    <t xml:space="preserve">238</t>
+    <t xml:space="preserve">272</t>
   </si>
   <si>
     <t xml:space="preserve">Plan</t>
@@ -224,10 +227,10 @@
     <t xml:space="preserve">No plan</t>
   </si>
   <si>
-    <t xml:space="preserve">2082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50%</t>
+    <t xml:space="preserve">2048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49%</t>
   </si>
   <si>
     <t xml:space="preserve">studyGroup</t>
@@ -717,13 +720,13 @@
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
         <v>13</v>
@@ -731,65 +734,65 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5"/>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6"/>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7"/>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H7" t="s">
         <v>13</v>
@@ -797,21 +800,21 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8"/>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H8" t="s">
         <v>13</v>
@@ -819,241 +822,241 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9"/>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B10"/>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E11"/>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E12"/>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E13"/>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E14"/>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E15"/>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E16"/>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E17"/>
       <c r="F17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" t="s">
         <v>79</v>
-      </c>
-      <c r="C18" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" t="s">
-        <v>78</v>
       </c>
       <c r="E18"/>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B19"/>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D19"/>
       <c r="E19" t="s">
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H19" t="s">
         <v>13</v>
@@ -1061,89 +1064,89 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E20"/>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E21"/>
       <c r="F21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C22" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E22"/>
       <c r="F22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D23" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E23"/>
       <c r="F23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H23"/>
     </row>

--- a/Output/DescriptivesAll.xlsx
+++ b/Output/DescriptivesAll.xlsx
@@ -6,13 +6,13 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t xml:space="preserve">Variable</t>
   </si>
@@ -20,10 +20,10 @@
     <t xml:space="preserve">Level</t>
   </si>
   <si>
-    <t xml:space="preserve">n_Obs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percentage_Obs</t>
+    <t xml:space="preserve">n Observations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% Observations</t>
   </si>
   <si>
     <t xml:space="preserve">Missing</t>
@@ -41,141 +41,60 @@
     <t xml:space="preserve">persuasion</t>
   </si>
   <si>
-    <t xml:space="preserve">3936</t>
-  </si>
-  <si>
     <t xml:space="preserve">6%</t>
   </si>
   <si>
-    <t xml:space="preserve">   0.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1.08</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.00-   5.00</t>
   </si>
   <si>
     <t xml:space="preserve">pressure</t>
   </si>
   <si>
-    <t xml:space="preserve">3931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   0.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.62</t>
-  </si>
-  <si>
     <t xml:space="preserve">pushing</t>
   </si>
   <si>
-    <t xml:space="preserve">3905</t>
-  </si>
-  <si>
     <t xml:space="preserve">7%</t>
   </si>
   <si>
-    <t xml:space="preserve">   0.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.66</t>
-  </si>
-  <si>
     <t xml:space="preserve">pa_sub</t>
   </si>
   <si>
-    <t xml:space="preserve">3943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  30.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 54.78</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.00- 720.00</t>
   </si>
   <si>
     <t xml:space="preserve">pa_obj</t>
   </si>
   <si>
-    <t xml:space="preserve">3706</t>
-  </si>
-  <si>
     <t xml:space="preserve">11%</t>
   </si>
   <si>
-    <t xml:space="preserve"> 144.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117.81</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.75- 971.25</t>
   </si>
   <si>
     <t xml:space="preserve">aff</t>
   </si>
   <si>
-    <t xml:space="preserve">3944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   3.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1.14</t>
-  </si>
-  <si>
     <t xml:space="preserve">reactance</t>
   </si>
   <si>
-    <t xml:space="preserve">795</t>
-  </si>
-  <si>
     <t xml:space="preserve">81%</t>
   </si>
   <si>
-    <t xml:space="preserve">   0.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1.32</t>
-  </si>
-  <si>
     <t xml:space="preserve">day</t>
   </si>
   <si>
-    <t xml:space="preserve">4180</t>
-  </si>
-  <si>
     <t xml:space="preserve">0%</t>
   </si>
   <si>
-    <t xml:space="preserve">   0.50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.29</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.00-   1.00</t>
   </si>
   <si>
     <t xml:space="preserve">weartime</t>
   </si>
   <si>
-    <t xml:space="preserve">4124</t>
-  </si>
-  <si>
     <t xml:space="preserve">1%</t>
   </si>
   <si>
-    <t xml:space="preserve">1057.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">384.29</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.00-1440.00</t>
   </si>
   <si>
@@ -185,24 +104,12 @@
     <t xml:space="preserve">Weekend</t>
   </si>
   <si>
-    <t xml:space="preserve">1216</t>
-  </si>
-  <si>
     <t xml:space="preserve">29%</t>
   </si>
   <si>
-    <t xml:space="preserve">     NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    NA</t>
-  </si>
-  <si>
     <t xml:space="preserve">Weekday</t>
   </si>
   <si>
-    <t xml:space="preserve">2964</t>
-  </si>
-  <si>
     <t xml:space="preserve">71%</t>
   </si>
   <si>
@@ -212,24 +119,15 @@
     <t xml:space="preserve">missing</t>
   </si>
   <si>
-    <t xml:space="preserve">272</t>
-  </si>
-  <si>
     <t xml:space="preserve">Plan</t>
   </si>
   <si>
-    <t xml:space="preserve">1860</t>
-  </si>
-  <si>
     <t xml:space="preserve">44%</t>
   </si>
   <si>
     <t xml:space="preserve">No plan</t>
   </si>
   <si>
-    <t xml:space="preserve">2048</t>
-  </si>
-  <si>
     <t xml:space="preserve">49%</t>
   </si>
   <si>
@@ -239,18 +137,12 @@
     <t xml:space="preserve">last 3 weeks interventions</t>
   </si>
   <si>
-    <t xml:space="preserve">1320</t>
-  </si>
-  <si>
     <t xml:space="preserve">32%</t>
   </si>
   <si>
     <t xml:space="preserve">Allways inerventions</t>
   </si>
   <si>
-    <t xml:space="preserve">1430</t>
-  </si>
-  <si>
     <t xml:space="preserve">34%</t>
   </si>
   <si>
@@ -260,33 +152,18 @@
     <t xml:space="preserve">support</t>
   </si>
   <si>
-    <t xml:space="preserve">3927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   0.91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1.52</t>
-  </si>
-  <si>
     <t xml:space="preserve">got_JITAI</t>
   </si>
   <si>
     <t xml:space="preserve">JITAI received</t>
   </si>
   <si>
-    <t xml:space="preserve">585</t>
-  </si>
-  <si>
     <t xml:space="preserve">14%</t>
   </si>
   <si>
     <t xml:space="preserve">No JITAI</t>
   </si>
   <si>
-    <t xml:space="preserve">3595</t>
-  </si>
-  <si>
     <t xml:space="preserve">86%</t>
   </si>
   <si>
@@ -296,16 +173,10 @@
     <t xml:space="preserve">Days before Intervention</t>
   </si>
   <si>
-    <t xml:space="preserve">1036</t>
-  </si>
-  <si>
     <t xml:space="preserve">25%</t>
   </si>
   <si>
     <t xml:space="preserve">Days after Intervention</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3144</t>
   </si>
   <si>
     <t xml:space="preserve">75%</t>
@@ -316,13 +187,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -333,7 +209,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -341,12 +217,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -641,514 +535,466 @@
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2"/>
-      <c r="C2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="n">
+        <v>3936</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2"/>
-      <c r="E2" t="s">
+      <c r="F2" s="2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3"/>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3"/>
-      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="n">
+        <v>3931</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4"/>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4"/>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="n">
+        <v>3905</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5"/>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5"/>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" t="s">
-        <v>27</v>
+        <v>14</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="n">
+        <v>3943</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>54.78</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6"/>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6"/>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" t="s">
-        <v>33</v>
+        <v>16</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="n">
+        <v>3706</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>144.41</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>117.81</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7"/>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7"/>
-      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="n">
+        <v>3944</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8"/>
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8"/>
-      <c r="E8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="n">
+        <v>795</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9"/>
-      <c r="C9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9"/>
-      <c r="E9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" t="s">
-        <v>48</v>
+        <v>22</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="n">
+        <v>4180</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10"/>
-      <c r="C10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10"/>
-      <c r="E10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" t="s">
-        <v>54</v>
+        <v>25</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="n">
+        <v>4124</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>1057.42</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>384.29</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11"/>
-      <c r="F11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11"/>
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>1216</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12"/>
-      <c r="F12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H12"/>
+        <v>28</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>2964</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13"/>
-      <c r="F13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" t="s">
-        <v>60</v>
-      </c>
-      <c r="H13"/>
+        <v>33</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14"/>
-      <c r="F14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" t="s">
-        <v>60</v>
-      </c>
-      <c r="H14"/>
+        <v>33</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>1860</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15"/>
-      <c r="F15" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" t="s">
-        <v>60</v>
-      </c>
-      <c r="H15"/>
+        <v>33</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16"/>
-      <c r="F16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" t="s">
-        <v>60</v>
-      </c>
-      <c r="H16"/>
+        <v>39</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>1320</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E17"/>
-      <c r="F17" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" t="s">
-        <v>60</v>
-      </c>
-      <c r="H17"/>
+        <v>39</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>1430</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" t="s">
-        <v>79</v>
-      </c>
-      <c r="E18"/>
-      <c r="F18" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" t="s">
-        <v>60</v>
-      </c>
-      <c r="H18"/>
+        <v>39</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>1430</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>81</v>
-      </c>
-      <c r="B19"/>
-      <c r="C19" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19"/>
-      <c r="E19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="n">
+        <v>3927</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="F19" t="s">
-        <v>83</v>
-      </c>
-      <c r="G19" t="s">
-        <v>84</v>
-      </c>
-      <c r="H19" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>85</v>
-      </c>
-      <c r="B20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" t="s">
-        <v>88</v>
-      </c>
-      <c r="E20"/>
-      <c r="F20" t="s">
-        <v>59</v>
-      </c>
-      <c r="G20" t="s">
-        <v>60</v>
-      </c>
-      <c r="H20"/>
+        <v>46</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>585</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21" t="s">
-        <v>91</v>
-      </c>
-      <c r="E21"/>
-      <c r="F21" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21"/>
+        <v>46</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>3595</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>92</v>
-      </c>
-      <c r="B22" t="s">
-        <v>93</v>
-      </c>
-      <c r="C22" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" t="s">
-        <v>95</v>
-      </c>
-      <c r="E22"/>
-      <c r="F22" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22" t="s">
-        <v>60</v>
-      </c>
-      <c r="H22"/>
+        <v>51</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>1036</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>92</v>
-      </c>
-      <c r="B23" t="s">
-        <v>96</v>
-      </c>
-      <c r="C23" t="s">
-        <v>97</v>
-      </c>
-      <c r="D23" t="s">
-        <v>98</v>
-      </c>
-      <c r="E23"/>
-      <c r="F23" t="s">
-        <v>59</v>
-      </c>
-      <c r="G23" t="s">
-        <v>60</v>
-      </c>
-      <c r="H23"/>
+      <c r="A23" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="4" t="n">
+        <v>3144</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/DescriptivesAll.xlsx
+++ b/Output/DescriptivesAll.xlsx
@@ -1,193 +1,203 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pascku\Repos\02TimeAndTiesControl\Output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DD9D53-5C0D-4988-B3A5-EC2212D71269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-22510" yWindow="760" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
-  <si>
-    <t xml:space="preserve">Variable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n Observations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">% Observations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Missing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">persuasion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00-   5.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pushing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pa_sub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00- 720.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pa_obj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75- 971.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reactance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00-   1.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">weartime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00-1440.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isWeekend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weekend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weekday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">missing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No plan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">studyGroup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">last 3 weeks interventions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allways inerventions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First 3 weeks interventions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">support</t>
-  </si>
-  <si>
-    <t xml:space="preserve">got_JITAI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JITAI received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No JITAI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skilled_support</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Days before Intervention</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Days after Intervention</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75%</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>n Observations</t>
+  </si>
+  <si>
+    <t>% Observations</t>
+  </si>
+  <si>
+    <t>Missing</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>6%</t>
+  </si>
+  <si>
+    <t>0.00-   5.00</t>
+  </si>
+  <si>
+    <t>7%</t>
+  </si>
+  <si>
+    <t>0.00- 720.00</t>
+  </si>
+  <si>
+    <t>11%</t>
+  </si>
+  <si>
+    <t>5.75- 971.25</t>
+  </si>
+  <si>
+    <t>81%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0.00-   1.00</t>
+  </si>
+  <si>
+    <t>1%</t>
+  </si>
+  <si>
+    <t>0.00-1440.00</t>
+  </si>
+  <si>
+    <t>Weekend</t>
+  </si>
+  <si>
+    <t>29%</t>
+  </si>
+  <si>
+    <t>Weekday</t>
+  </si>
+  <si>
+    <t>71%</t>
+  </si>
+  <si>
+    <t>56%</t>
+  </si>
+  <si>
+    <t>0.00-   3.57</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>Plan</t>
+  </si>
+  <si>
+    <t>44%</t>
+  </si>
+  <si>
+    <t>No plan</t>
+  </si>
+  <si>
+    <t>49%</t>
+  </si>
+  <si>
+    <t>last 3 weeks interventions</t>
+  </si>
+  <si>
+    <t>32%</t>
+  </si>
+  <si>
+    <t>Allways inerventions</t>
+  </si>
+  <si>
+    <t>34%</t>
+  </si>
+  <si>
+    <t>First 3 weeks interventions</t>
+  </si>
+  <si>
+    <t>JITAI received</t>
+  </si>
+  <si>
+    <t>14%</t>
+  </si>
+  <si>
+    <t>No JITAI</t>
+  </si>
+  <si>
+    <t>86%</t>
+  </si>
+  <si>
+    <t>Days before Intervention</t>
+  </si>
+  <si>
+    <t>25%</t>
+  </si>
+  <si>
+    <t>Days after Intervention</t>
+  </si>
+  <si>
+    <t>75%</t>
+  </si>
+  <si>
+    <t>Persuasion</t>
+  </si>
+  <si>
+    <t>Pressure</t>
+  </si>
+  <si>
+    <t>Plan-related pushing</t>
+  </si>
+  <si>
+    <t>Self-reported MVPA</t>
+  </si>
+  <si>
+    <t>Device-based MVPA</t>
+  </si>
+  <si>
+    <t>Mood</t>
+  </si>
+  <si>
+    <t>Reactance</t>
+  </si>
+  <si>
+    <t>Time (diary day)</t>
+  </si>
+  <si>
+    <t>Weartime</t>
+  </si>
+  <si>
+    <t>Barriers</t>
+  </si>
+  <si>
+    <t>Facilitators</t>
+  </si>
+  <si>
+    <t>Intervention group</t>
+  </si>
+  <si>
+    <t>Social support</t>
+  </si>
+  <si>
+    <t>Skilled support received</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -200,6 +210,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -209,7 +225,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -218,20 +234,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -239,13 +274,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -527,15 +577,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="123" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="20.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.06640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.46484375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -560,444 +622,488 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="2">
         <v>3936</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1.08</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>11</v>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="1">
         <v>3931</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>12</v>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="1">
         <v>3905</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1">
         <v>0.16</v>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="G4" s="1">
         <v>0.66</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="1">
         <v>3943</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1">
         <v>30.4</v>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="G5" s="1">
         <v>54.78</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="1">
         <v>3706</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1">
         <v>144.41</v>
       </c>
-      <c r="G6" s="1" t="n">
+      <c r="G6" s="1">
         <v>117.81</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="1">
         <v>3944</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3.83</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="1" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="G7" s="1" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>20</v>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="1">
         <v>795</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="F8" s="1">
         <v>0.79</v>
       </c>
-      <c r="G8" s="1" t="n">
+      <c r="G8" s="1">
         <v>1.32</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>22</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="1">
         <v>4180</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="F9" s="1">
         <v>0.5</v>
       </c>
-      <c r="G9" s="1" t="n">
-        <v>0.29</v>
+      <c r="G9" s="1">
+        <v>0.28999999999999998</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>25</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="1">
         <v>4124</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="F10" s="1">
         <v>1057.42</v>
       </c>
-      <c r="G10" s="1" t="n">
+      <c r="G10" s="1">
         <v>384.29</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>28</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1">
         <v>1216</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>28</v>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="C12" s="1">
         <v>2964</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1">
+        <v>1856</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1">
+        <v>1856</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1.03</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1">
         <v>272</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>1860</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>2048</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>39</v>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>1320</v>
+        <v>26</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1860</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>39</v>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>1430</v>
+        <v>28</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2048</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>39</v>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>1430</v>
+        <v>30</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1320</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1" t="n">
-        <v>3927</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="1" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="G19" s="1" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>46</v>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1430</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A20" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>585</v>
+        <v>34</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1430</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>3595</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>51</v>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A21" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1">
+        <v>3927</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1.52</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A22" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>1036</v>
+        <v>35</v>
+      </c>
+      <c r="C22" s="1">
+        <v>585</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="4" t="n">
+        <v>35</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3595</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A24" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1036</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="6">
         <v>3144</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
+      <c r="D25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Output/DescriptivesAll.xlsx
+++ b/Output/DescriptivesAll.xlsx
@@ -1,203 +1,205 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pascku\Repos\02TimeAndTiesControl\Output\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DD9D53-5C0D-4988-B3A5-EC2212D71269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-22510" yWindow="760" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
-  <si>
-    <t>Variable</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>n Observations</t>
-  </si>
-  <si>
-    <t>% Observations</t>
-  </si>
-  <si>
-    <t>Missing</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>SD</t>
-  </si>
-  <si>
-    <t>Range</t>
-  </si>
-  <si>
-    <t>6%</t>
-  </si>
-  <si>
-    <t>0.00-   5.00</t>
-  </si>
-  <si>
-    <t>7%</t>
-  </si>
-  <si>
-    <t>0.00- 720.00</t>
-  </si>
-  <si>
-    <t>11%</t>
-  </si>
-  <si>
-    <t>5.75- 971.25</t>
-  </si>
-  <si>
-    <t>81%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0.00-   1.00</t>
-  </si>
-  <si>
-    <t>1%</t>
-  </si>
-  <si>
-    <t>0.00-1440.00</t>
-  </si>
-  <si>
-    <t>Weekend</t>
-  </si>
-  <si>
-    <t>29%</t>
-  </si>
-  <si>
-    <t>Weekday</t>
-  </si>
-  <si>
-    <t>71%</t>
-  </si>
-  <si>
-    <t>56%</t>
-  </si>
-  <si>
-    <t>0.00-   3.57</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>Plan</t>
-  </si>
-  <si>
-    <t>44%</t>
-  </si>
-  <si>
-    <t>No plan</t>
-  </si>
-  <si>
-    <t>49%</t>
-  </si>
-  <si>
-    <t>last 3 weeks interventions</t>
-  </si>
-  <si>
-    <t>32%</t>
-  </si>
-  <si>
-    <t>Allways inerventions</t>
-  </si>
-  <si>
-    <t>34%</t>
-  </si>
-  <si>
-    <t>First 3 weeks interventions</t>
-  </si>
-  <si>
-    <t>JITAI received</t>
-  </si>
-  <si>
-    <t>14%</t>
-  </si>
-  <si>
-    <t>No JITAI</t>
-  </si>
-  <si>
-    <t>86%</t>
-  </si>
-  <si>
-    <t>Days before Intervention</t>
-  </si>
-  <si>
-    <t>25%</t>
-  </si>
-  <si>
-    <t>Days after Intervention</t>
-  </si>
-  <si>
-    <t>75%</t>
-  </si>
-  <si>
-    <t>Persuasion</t>
-  </si>
-  <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <t>Plan-related pushing</t>
-  </si>
-  <si>
-    <t>Self-reported MVPA</t>
-  </si>
-  <si>
-    <t>Device-based MVPA</t>
-  </si>
-  <si>
-    <t>Mood</t>
-  </si>
-  <si>
-    <t>Reactance</t>
-  </si>
-  <si>
-    <t>Time (diary day)</t>
-  </si>
-  <si>
-    <t>Weartime</t>
-  </si>
-  <si>
-    <t>Barriers</t>
-  </si>
-  <si>
-    <t>Facilitators</t>
-  </si>
-  <si>
-    <t>Intervention group</t>
-  </si>
-  <si>
-    <t>Social support</t>
-  </si>
-  <si>
-    <t>Skilled support received</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+  <si>
+    <t xml:space="preserve">Variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n Observations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% Observations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">persuasion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00-   5.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pushing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pa_sub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00- 720.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pa_obj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75- 971.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reactance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00-   1.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weartime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00-1440.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isWeekend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weekend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weekday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">barriers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00-   3.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facilitators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">missing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">studyGroup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last 3 weeks interventions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allways inerventions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First 3 weeks interventions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">got_JITAI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JITAI received</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No JITAI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skilled_support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Days before Intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Days after Intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -210,12 +212,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -225,7 +221,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -234,39 +230,20 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -274,28 +251,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -577,27 +539,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="123" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="20.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.06640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.46484375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
+    <row r="1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -622,488 +572,488 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" s="4" t="s">
-        <v>43</v>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="2">
+      <c r="C2" s="2" t="n">
         <v>3936</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="n">
         <v>0.42</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="2" t="n">
         <v>1.08</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" s="4" t="s">
-        <v>44</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>11</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="1">
+      <c r="C3" s="1" t="n">
         <v>3931</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="n">
         <v>0.12</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="1" t="n">
         <v>0.62</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" s="4" t="s">
-        <v>45</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>12</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="1">
+      <c r="C4" s="1" t="n">
         <v>3905</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.66</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" s="4" t="s">
-        <v>46</v>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>14</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="1">
+      <c r="C5" s="1" t="n">
         <v>3943</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1" t="n">
         <v>30.4</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="1" t="n">
         <v>54.78</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="4" t="s">
-        <v>47</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>16</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="1">
+      <c r="C6" s="1" t="n">
         <v>3706</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="1">
+        <v>17</v>
+      </c>
+      <c r="F6" s="1" t="n">
         <v>144.41</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="1" t="n">
         <v>117.81</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" s="4" t="s">
-        <v>48</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>19</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="1">
+      <c r="C7" s="1" t="n">
         <v>3944</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="1">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1" t="n">
         <v>3.83</v>
       </c>
-      <c r="G7" s="1">
-        <v>1.1399999999999999</v>
+      <c r="G7" s="1" t="n">
+        <v>1.14</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" s="4" t="s">
-        <v>49</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>20</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="1">
+      <c r="C8" s="1" t="n">
         <v>795</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="1">
+        <v>21</v>
+      </c>
+      <c r="F8" s="1" t="n">
         <v>0.79</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="1" t="n">
         <v>1.32</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" s="4" t="s">
-        <v>50</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>22</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="1">
+      <c r="C9" s="1" t="n">
         <v>4180</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="1">
+        <v>23</v>
+      </c>
+      <c r="F9" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="G9" s="1">
-        <v>0.28999999999999998</v>
+      <c r="G9" s="1" t="n">
+        <v>0.29</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" s="4" t="s">
-        <v>51</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>25</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="1">
+      <c r="C10" s="1" t="n">
         <v>4124</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="1">
+        <v>26</v>
+      </c>
+      <c r="F10" s="1" t="n">
         <v>1057.42</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="1" t="n">
         <v>384.29</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" s="4" t="s">
-        <v>19</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="1">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1" t="n">
         <v>1216</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="4" t="s">
-        <v>19</v>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>28</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="1">
+        <v>31</v>
+      </c>
+      <c r="C12" s="1" t="n">
         <v>2964</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="1">
+      <c r="C13" s="1" t="n">
         <v>1856</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="1">
+        <v>34</v>
+      </c>
+      <c r="F13" s="1" t="n">
         <v>0.95</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="1" t="n">
         <v>0.81</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="1">
+      <c r="C14" s="1" t="n">
         <v>1856</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="1">
+        <v>34</v>
+      </c>
+      <c r="F14" s="1" t="n">
         <v>1.03</v>
       </c>
-      <c r="G14" s="1">
-        <v>1.1200000000000001</v>
+      <c r="G14" s="1" t="n">
+        <v>1.12</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A15" s="4" t="s">
-        <v>26</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>37</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="1">
+        <v>38</v>
+      </c>
+      <c r="C15" s="1" t="n">
         <v>272</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A16" s="4" t="s">
-        <v>26</v>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>37</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="1">
+        <v>39</v>
+      </c>
+      <c r="C16" s="1" t="n">
         <v>1860</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A17" s="4" t="s">
-        <v>26</v>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>37</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="1">
+        <v>41</v>
+      </c>
+      <c r="C17" s="1" t="n">
         <v>2048</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A18" s="4" t="s">
-        <v>54</v>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>43</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="1">
+        <v>44</v>
+      </c>
+      <c r="C18" s="1" t="n">
         <v>1320</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" s="4" t="s">
-        <v>54</v>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>43</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="1">
+        <v>46</v>
+      </c>
+      <c r="C19" s="1" t="n">
         <v>1430</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A20" s="4" t="s">
-        <v>54</v>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>43</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="1">
+        <v>48</v>
+      </c>
+      <c r="C20" s="1" t="n">
         <v>1430</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A21" s="4" t="s">
-        <v>55</v>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>49</v>
       </c>
       <c r="B21" s="1"/>
-      <c r="C21" s="1">
+      <c r="C21" s="1" t="n">
         <v>3927</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="1">
+        <v>9</v>
+      </c>
+      <c r="F21" s="1" t="n">
         <v>0.91</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="1" t="n">
         <v>1.52</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A22" s="4" t="s">
-        <v>35</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>50</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="1">
+        <v>51</v>
+      </c>
+      <c r="C22" s="1" t="n">
         <v>585</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A23" s="4" t="s">
-        <v>35</v>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>50</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="1">
+        <v>53</v>
+      </c>
+      <c r="C23" s="1" t="n">
         <v>3595</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A24" s="4" t="s">
+    <row r="24">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="1">
+      <c r="C24" s="1" t="n">
         <v>1036</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="6">
+    <row r="25">
+      <c r="A25" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="4" t="n">
         <v>3144</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="D25" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Output/DescriptivesAll.xlsx
+++ b/Output/DescriptivesAll.xlsx
@@ -119,7 +119,7 @@
     <t xml:space="preserve">56%</t>
   </si>
   <si>
-    <t xml:space="preserve">0.00-   3.57</t>
+    <t xml:space="preserve">0.00-   3.50</t>
   </si>
   <si>
     <t xml:space="preserve">facilitators</t>
@@ -819,10 +819,10 @@
         <v>34</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>0.81</v>
+        <v>0.75</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>35</v>
@@ -841,10 +841,10 @@
         <v>34</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>1.03</v>
+        <v>0.92</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>1.12</v>
+        <v>1.02</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>10</v>

--- a/Output/DescriptivesAll.xlsx
+++ b/Output/DescriptivesAll.xlsx
@@ -1,205 +1,212 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pascku\Repos\02TimeAndTiesControl\Output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C10368-58A4-499D-918B-316DF6B69820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-22510" yWindow="760" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
-  <si>
-    <t xml:space="preserve">Variable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n Observations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">% Observations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Missing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">persuasion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00-   5.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pushing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pa_sub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00- 720.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pa_obj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75- 971.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reactance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00-   1.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">weartime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00-1440.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isWeekend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weekend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weekday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">barriers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00-   3.50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">facilitators</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">missing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No plan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">studyGroup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">last 3 weeks interventions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allways inerventions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First 3 weeks interventions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">support</t>
-  </si>
-  <si>
-    <t xml:space="preserve">got_JITAI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JITAI received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No JITAI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skilled_support</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Days before Intervention</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Days after Intervention</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75%</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="60">
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>n Observations</t>
+  </si>
+  <si>
+    <t>% Observations</t>
+  </si>
+  <si>
+    <t>Missing</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>persuasion</t>
+  </si>
+  <si>
+    <t>6%</t>
+  </si>
+  <si>
+    <t>0.00-   5.00</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>pushing</t>
+  </si>
+  <si>
+    <t>7%</t>
+  </si>
+  <si>
+    <t>pa_sub</t>
+  </si>
+  <si>
+    <t>0.00- 720.00</t>
+  </si>
+  <si>
+    <t>pa_obj</t>
+  </si>
+  <si>
+    <t>11%</t>
+  </si>
+  <si>
+    <t>5.75- 971.25</t>
+  </si>
+  <si>
+    <t>aff</t>
+  </si>
+  <si>
+    <t>reactance</t>
+  </si>
+  <si>
+    <t>81%</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0.00-   1.00</t>
+  </si>
+  <si>
+    <t>weartime</t>
+  </si>
+  <si>
+    <t>1%</t>
+  </si>
+  <si>
+    <t>0.00-1440.00</t>
+  </si>
+  <si>
+    <t>isWeekend</t>
+  </si>
+  <si>
+    <t>Weekend</t>
+  </si>
+  <si>
+    <t>29%</t>
+  </si>
+  <si>
+    <t>Weekday</t>
+  </si>
+  <si>
+    <t>71%</t>
+  </si>
+  <si>
+    <t>barriers</t>
+  </si>
+  <si>
+    <t>56%</t>
+  </si>
+  <si>
+    <t>0.00-   3.50</t>
+  </si>
+  <si>
+    <t>facilitators</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>Plan</t>
+  </si>
+  <si>
+    <t>44%</t>
+  </si>
+  <si>
+    <t>No plan</t>
+  </si>
+  <si>
+    <t>49%</t>
+  </si>
+  <si>
+    <t>studyGroup</t>
+  </si>
+  <si>
+    <t>last 3 weeks interventions</t>
+  </si>
+  <si>
+    <t>32%</t>
+  </si>
+  <si>
+    <t>Allways inerventions</t>
+  </si>
+  <si>
+    <t>34%</t>
+  </si>
+  <si>
+    <t>First 3 weeks interventions</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>got_JITAI</t>
+  </si>
+  <si>
+    <t>JITAI received</t>
+  </si>
+  <si>
+    <t>14%</t>
+  </si>
+  <si>
+    <t>No JITAI</t>
+  </si>
+  <si>
+    <t>86%</t>
+  </si>
+  <si>
+    <t>skilled_support</t>
+  </si>
+  <si>
+    <t>Days before Intervention</t>
+  </si>
+  <si>
+    <t>25%</t>
+  </si>
+  <si>
+    <t>Days after Intervention</t>
+  </si>
+  <si>
+    <t>75%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -230,20 +237,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -253,11 +268,23 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -539,14 +566,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.46484375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.9296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.265625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -572,212 +611,212 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="2">
         <v>3936</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="2">
         <v>0.42</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="G2" s="2">
         <v>1.08</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="1">
         <v>3931</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F3" s="1">
         <v>0.12</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="G3" s="1">
         <v>0.62</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="1">
         <v>3905</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="F4" s="1">
         <v>0.16</v>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="G4" s="1">
         <v>0.66</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="1">
         <v>3943</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="F5" s="1">
         <v>30.4</v>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="G5" s="1">
         <v>54.78</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="1">
         <v>3706</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="F6" s="1">
         <v>144.41</v>
       </c>
-      <c r="G6" s="1" t="n">
+      <c r="G6" s="1">
         <v>117.81</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="1">
         <v>3944</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="1" t="n">
+      <c r="F7" s="1">
         <v>3.83</v>
       </c>
-      <c r="G7" s="1" t="n">
-        <v>1.14</v>
+      <c r="G7" s="1">
+        <v>1.1399999999999999</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="1">
         <v>795</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="1" t="n">
+      <c r="F8" s="1">
         <v>0.79</v>
       </c>
-      <c r="G8" s="1" t="n">
+      <c r="G8" s="1">
         <v>1.32</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="1">
         <v>4180</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="1" t="n">
+      <c r="F9" s="1">
         <v>0.5</v>
       </c>
-      <c r="G9" s="1" t="n">
-        <v>0.29</v>
+      <c r="G9" s="1">
+        <v>0.28999999999999998</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="1">
         <v>4124</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="1" t="n">
+      <c r="F10" s="1">
         <v>1057.42</v>
       </c>
-      <c r="G10" s="1" t="n">
+      <c r="G10" s="1">
         <v>384.29</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="1">
         <v>1216</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -788,14 +827,14 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="1">
         <v>2964</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -806,58 +845,58 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>33</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="1">
         <v>1856</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="1" t="n">
+      <c r="F13" s="1">
         <v>0.9</v>
       </c>
-      <c r="G13" s="1" t="n">
+      <c r="G13" s="1">
         <v>0.75</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>36</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="1" t="n">
+      <c r="C14" s="1">
         <v>1856</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="1" t="n">
+      <c r="F14" s="1">
         <v>0.92</v>
       </c>
-      <c r="G14" s="1" t="n">
+      <c r="G14" s="1">
         <v>1.02</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>37</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C15" s="1">
         <v>272</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -868,14 +907,14 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="1" t="n">
+      <c r="C16" s="1">
         <v>1860</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -886,14 +925,14 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="1" t="n">
+      <c r="C17" s="1">
         <v>2048</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -904,14 +943,14 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>43</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="1" t="n">
+      <c r="C18" s="1">
         <v>1320</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -922,14 +961,14 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="1" t="n">
+      <c r="C19" s="1">
         <v>1430</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -940,14 +979,14 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>43</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="1" t="n">
+      <c r="C20" s="1">
         <v>1430</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -958,36 +997,36 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>49</v>
       </c>
       <c r="B21" s="1"/>
-      <c r="C21" s="1" t="n">
+      <c r="C21" s="1">
         <v>3927</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="1" t="n">
+      <c r="F21" s="1">
         <v>0.91</v>
       </c>
-      <c r="G21" s="1" t="n">
+      <c r="G21" s="1">
         <v>1.52</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>50</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="1" t="n">
+      <c r="C22" s="1">
         <v>585</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -998,14 +1037,14 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>50</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="1" t="n">
+      <c r="C23" s="1">
         <v>3595</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -1016,14 +1055,14 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>55</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="1" t="n">
+      <c r="C24" s="1">
         <v>1036</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -1034,26 +1073,26 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="4" t="n">
+      <c r="C25" s="5">
         <v>3144</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>